--- a/物资清单.xlsx
+++ b/物资清单.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{752CC54A-A3E2-41F7-8FE2-E249CDA4DB74}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="仓库物资" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="92">
   <si>
     <t>物资名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -154,10 +153,6 @@
   </si>
   <si>
     <t>C3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清洁剂</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -396,8 +391,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -501,7 +496,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -536,7 +531,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -713,30 +708,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="28.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.77734375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="6" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -744,7 +739,7 @@
         <v>43307</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -761,7 +756,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -778,7 +773,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -795,7 +790,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -812,7 +807,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -829,7 +824,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -846,7 +841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -863,7 +858,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -880,7 +875,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
@@ -897,7 +892,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
@@ -914,7 +909,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
@@ -931,7 +926,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -948,7 +943,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
@@ -965,41 +960,41 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>37</v>
       </c>
@@ -1016,7 +1011,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
@@ -1024,7 +1019,7 @@
         <v>7</v>
       </c>
       <c r="C18" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>12</v>
@@ -1033,12 +1028,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
@@ -1050,12 +1045,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
@@ -1067,43 +1062,43 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="C22" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>7</v>
@@ -1115,10 +1110,10 @@
         <v>12</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>47</v>
       </c>
@@ -1126,16 +1121,16 @@
         <v>7</v>
       </c>
       <c r="C24" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
         <v>48</v>
       </c>
@@ -1143,16 +1138,16 @@
         <v>7</v>
       </c>
       <c r="C25" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
         <v>49</v>
       </c>
@@ -1166,10 +1161,10 @@
         <v>12</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
         <v>50</v>
       </c>
@@ -1183,10 +1178,10 @@
         <v>12</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
         <v>51</v>
       </c>
@@ -1200,10 +1195,10 @@
         <v>12</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
         <v>52</v>
       </c>
@@ -1217,10 +1212,10 @@
         <v>12</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
         <v>53</v>
       </c>
@@ -1228,16 +1223,16 @@
         <v>7</v>
       </c>
       <c r="C30" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
         <v>54</v>
       </c>
@@ -1251,27 +1246,27 @@
         <v>12</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="1">
-        <v>2</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
         <v>57</v>
       </c>
@@ -1279,38 +1274,38 @@
         <v>7</v>
       </c>
       <c r="C33" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C34" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C35" s="1">
         <v>1</v>
@@ -1319,15 +1314,15 @@
         <v>12</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="C36" s="1">
         <v>1</v>
@@ -1336,15 +1331,15 @@
         <v>12</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="C37" s="1">
         <v>1</v>
@@ -1353,61 +1348,61 @@
         <v>12</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="C38" s="1">
         <v>1</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C39" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="1">
+        <v>4</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="1">
-        <v>3</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
         <v>71</v>
       </c>
@@ -1415,101 +1410,101 @@
         <v>7</v>
       </c>
       <c r="C41" s="1">
+        <v>25</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="1">
+        <v>2</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" s="1">
+        <v>7</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" s="1">
+        <v>30</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="1">
         <v>4</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="1">
-        <v>25</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" s="1">
-        <v>2</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C44" s="1">
-        <v>1</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C45" s="1">
-        <v>7</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C46" s="1">
-        <v>30</v>
-      </c>
       <c r="D46" s="1" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="1" t="s">
         <v>84</v>
       </c>
@@ -1517,7 +1512,7 @@
         <v>7</v>
       </c>
       <c r="C47" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>12</v>
@@ -1526,55 +1521,38 @@
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C48" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C49" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B50" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="C50" s="1">
-        <v>1</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/物资清单.xlsx
+++ b/物资清单.xlsx
@@ -708,7 +708,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -719,7 +719,7 @@
   <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -1427,7 +1427,7 @@
         <v>7</v>
       </c>
       <c r="C42" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>74</v>

--- a/物资清单.xlsx
+++ b/物资清单.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -10,8 +10,8 @@
     <sheet name="仓库物资" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -391,8 +391,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -440,8 +440,36 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -708,21 +736,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.75" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.375" style="1" bestFit="1" customWidth="1"/>
@@ -731,7 +759,7 @@
     <col min="6" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -739,7 +767,7 @@
         <v>43307</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -756,7 +784,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -773,7 +801,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -790,7 +818,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -807,7 +835,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -824,7 +852,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -840,8 +868,11 @@
       <c r="E7" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -858,7 +889,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -875,7 +906,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
@@ -892,7 +923,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
@@ -909,7 +940,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
@@ -926,7 +957,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -943,7 +974,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
@@ -960,7 +991,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>34</v>
       </c>
@@ -977,7 +1008,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>36</v>
       </c>
@@ -994,7 +1025,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>37</v>
       </c>
@@ -1011,7 +1042,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
@@ -1028,7 +1059,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
@@ -1045,7 +1076,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>41</v>
       </c>
@@ -1062,7 +1093,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
@@ -1079,7 +1110,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>44</v>
       </c>
@@ -1096,7 +1127,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>46</v>
       </c>
@@ -1113,7 +1144,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>47</v>
       </c>
@@ -1130,7 +1161,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>48</v>
       </c>
@@ -1147,7 +1178,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>49</v>
       </c>
@@ -1164,7 +1195,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>50</v>
       </c>
@@ -1181,7 +1212,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>51</v>
       </c>
@@ -1198,7 +1229,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>52</v>
       </c>
@@ -1215,7 +1246,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>53</v>
       </c>
@@ -1232,7 +1263,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>54</v>
       </c>
@@ -1249,7 +1280,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>56</v>
       </c>
@@ -1266,7 +1297,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>57</v>
       </c>
@@ -1283,7 +1314,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>58</v>
       </c>
@@ -1300,7 +1331,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>60</v>
       </c>
@@ -1317,7 +1348,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>62</v>
       </c>
@@ -1334,7 +1365,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>63</v>
       </c>
@@ -1351,7 +1382,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>65</v>
       </c>
@@ -1368,7 +1399,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>68</v>
       </c>
@@ -1385,7 +1416,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>70</v>
       </c>
@@ -1402,7 +1433,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>71</v>
       </c>
@@ -1419,7 +1450,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>73</v>
       </c>
@@ -1436,7 +1467,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>76</v>
       </c>
@@ -1453,7 +1484,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>78</v>
       </c>
@@ -1470,7 +1501,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>78</v>
       </c>
@@ -1487,7 +1518,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>83</v>
       </c>
@@ -1504,7 +1535,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>84</v>
       </c>
@@ -1521,7 +1552,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>87</v>
       </c>
@@ -1538,7 +1569,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>89</v>
       </c>
